--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\python\api-omie-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9A21E0-DC2D-4A7F-925F-F6BF36D14239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D814C9-8381-4AEC-A674-AF4FD8C0406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69EA36ED-1954-4A0E-ABD8-2909107073CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{69EA36ED-1954-4A0E-ABD8-2909107073CC}"/>
   </bookViews>
   <sheets>
     <sheet name="definições complexas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="notes int" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2572,10 +2571,10 @@
     </r>
   </si>
   <si>
-    <t>2407629011</t>
-  </si>
-  <si>
     <t>id_produto, tipo, status, unidade, valor_unitario, quan, id_movest, id_ajuste</t>
+  </si>
+  <si>
+    <t>4085566344</t>
   </si>
 </sst>
 </file>
@@ -3290,7 +3289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB53EDDB-72AE-45FC-8C6E-1A61A51215F9}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3558,7 +3557,7 @@
         <v>34</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -4430,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5C7EC1-48CE-492C-8331-9F1239791196}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4570,15 +4569,15 @@
       <c r="B11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="16">
-        <v>2407629011</v>
+      <c r="C11" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="D11" s="9">
         <v>6</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="16" t="s">
-        <v>199</v>
+      <c r="F11" s="16">
+        <v>4085566344</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\python\api-omie-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D814C9-8381-4AEC-A674-AF4FD8C0406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C6A58-0700-4457-AFA2-2ED0C424D75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{69EA36ED-1954-4A0E-ABD8-2909107073CC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="206">
   <si>
     <t>cadastro_prod</t>
   </si>
@@ -2575,6 +2575,21 @@
   </si>
   <si>
     <t>4085566344</t>
+  </si>
+  <si>
+    <t>2511785274</t>
+  </si>
+  <si>
+    <t>4085566100</t>
+  </si>
+  <si>
+    <t>4085565942</t>
+  </si>
+  <si>
+    <t>4085566245</t>
+  </si>
+  <si>
+    <t>4084861665</t>
   </si>
 </sst>
 </file>
@@ -4430,7 +4445,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4486,8 +4501,8 @@
         <v>1</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="16">
-        <v>2511785274</v>
+      <c r="F6" s="16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4504,8 +4519,8 @@
         <v>2</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="16">
-        <v>4085566100</v>
+      <c r="F7" s="16" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4515,15 +4530,15 @@
       <c r="B8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="16">
-        <v>4085565942</v>
+      <c r="C8" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="16">
-        <v>4085565942</v>
+      <c r="F8" s="16" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4540,8 +4555,8 @@
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="16">
-        <v>4085566245</v>
+      <c r="F9" s="16" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4551,15 +4566,15 @@
       <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="16">
-        <v>4085566245</v>
+      <c r="C10" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="D10" s="9">
         <v>5</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="16">
-        <v>4084861665</v>
+      <c r="F10" s="16" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4576,8 +4591,8 @@
         <v>6</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="16">
-        <v>4085566344</v>
+      <c r="F11" s="16" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\python\api-omie-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C6A58-0700-4457-AFA2-2ED0C424D75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417C761-1CE3-4A0B-A274-4CCA909AAC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{69EA36ED-1954-4A0E-ABD8-2909107073CC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="209">
   <si>
     <t>cadastro_prod</t>
   </si>
@@ -712,38 +712,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>descrição</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
     <t>descrição</t>
   </si>
   <si>
@@ -2590,13 +2558,65 @@
   </si>
   <si>
     <t>4084861665</t>
+  </si>
+  <si>
+    <t>2436985075</t>
+  </si>
+  <si>
+    <r>
+      <t>cadastro_prod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"item"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)[11]</t>
+    </r>
+  </si>
+  <si>
+    <t>ncm</t>
+  </si>
+  <si>
+    <r>
+      <t>descrição</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.79998168889431442"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(item):</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2723,6 +2743,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.79998168889431442"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -2881,7 +2914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2988,6 +3021,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3302,11 +3340,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB53EDDB-72AE-45FC-8C6E-1A61A51215F9}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3339,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -3432,17 +3468,17 @@
         <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>50</v>
+      <c r="D9" s="44" t="s">
+        <v>208</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
@@ -3453,10 +3489,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3464,10 +3500,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3475,10 +3511,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3486,63 +3522,65 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="28"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>159</v>
-      </c>
+      <c r="A15" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="40"/>
-      <c r="C18" s="11" t="s">
-        <v>31</v>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="B19" s="40"/>
       <c r="C19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="1"/>
@@ -3551,45 +3589,45 @@
       <c r="A20" s="12"/>
       <c r="B20" s="40"/>
       <c r="C20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="41"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="41"/>
+        <v>33</v>
+      </c>
+      <c r="D21" s="40"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>199</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D22" s="41"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="40"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>198</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="1" t="s">
-        <v>36</v>
+      <c r="C24" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="1"/>
@@ -3597,53 +3635,62 @@
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="11" t="s">
-        <v>37</v>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3682,16 +3729,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,10 +3749,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>41</v>
@@ -3722,16 +3769,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,16 +3789,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3762,16 +3809,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3782,16 +3829,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,10 +3899,10 @@
   <sheetData>
     <row r="1" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -3900,34 +3947,34 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>10000</v>
@@ -3941,10 +3988,10 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6">
         <f>E5*(I5/J5)</f>
@@ -3953,290 +4000,290 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4250,7 +4297,7 @@
         <v>10005</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D46" s="30">
         <v>2</v>
@@ -4265,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I46" s="30">
         <v>2436985075</v>
@@ -4282,7 +4329,7 @@
         <v>10003</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="30">
         <v>4</v>
@@ -4297,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I47" s="30">
         <v>2436985075</v>
@@ -4314,7 +4361,7 @@
         <v>10007</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" s="30">
         <v>1</v>
@@ -4329,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I48" s="30">
         <v>2436985075</v>
@@ -4346,7 +4393,7 @@
         <v>10022</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D49" s="30">
         <v>1</v>
@@ -4361,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I49" s="30">
         <v>2436985075</v>
@@ -4375,10 +4422,10 @@
         <v>5</v>
       </c>
       <c r="B50" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>175</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>176</v>
       </c>
       <c r="D50" s="30">
         <v>6</v>
@@ -4407,10 +4454,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>175</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>176</v>
       </c>
       <c r="D51" s="30">
         <v>7</v>
@@ -4445,7 +4492,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,7 +4505,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,7 +4513,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4474,10 +4521,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="16">
-        <v>2436985075</v>
+        <v>53</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -4492,7 +4539,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="16">
         <v>2511785274</v>
@@ -4502,7 +4549,7 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,17 +4557,17 @@
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="16">
-        <v>4084861665</v>
+        <v>53</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="D7" s="9">
         <v>2</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4528,17 +4575,17 @@
         <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,7 +4593,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16">
         <v>4085566100</v>
@@ -4556,7 +4603,7 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,17 +4611,17 @@
         <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="9">
         <v>5</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4582,60 +4629,60 @@
         <v>29</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="9">
         <v>6</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>164</v>
       </c>
       <c r="C15" s="26">
         <v>3638913624</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="26">
         <v>4086784228</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="26"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -4653,7 +4700,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="38"/>
@@ -4672,10 +4719,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -4694,7 +4741,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -4712,10 +4759,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
@@ -4734,7 +4781,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -4753,7 +4800,7 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -4772,7 +4819,7 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -4791,7 +4838,7 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -4810,7 +4857,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -4829,7 +4876,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -4848,7 +4895,7 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -4867,7 +4914,7 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -4886,7 +4933,7 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -4904,22 +4951,22 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
